--- a/output/test-edges.xlsx
+++ b/output/test-edges.xlsx
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -839,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -907,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>38.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -992,7 +992,7 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1009,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1026,7 +1026,7 @@
         <v>53</v>
       </c>
       <c r="E18">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1111,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>73</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>83</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>99</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>109</v>
       </c>
       <c r="E40">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>99</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/output/test-edges.xlsx
+++ b/output/test-edges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>Source</t>
   </si>
@@ -88,90 +88,39 @@
     <t>part-&gt;drive</t>
   </si>
   <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>island-&gt;democracy</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>law-&gt;use</t>
+  </si>
+  <si>
+    <t>requiring</t>
+  </si>
+  <si>
+    <t>use-&gt;ink</t>
+  </si>
+  <si>
+    <t>parliamentary</t>
+  </si>
+  <si>
+    <t>ink-&gt;parliamentary</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>worries</t>
-  </si>
-  <si>
-    <t>technology-&gt;worries</t>
-  </si>
-  <si>
-    <t>is causing</t>
-  </si>
-  <si>
-    <t>optimism</t>
-  </si>
-  <si>
-    <t>sectors</t>
-  </si>
-  <si>
-    <t>optimism-&gt;sectors</t>
-  </si>
-  <si>
-    <t>among</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>sectors-&gt;population</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>island-&gt;democracy</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>law-&gt;use</t>
-  </si>
-  <si>
-    <t>requiring</t>
-  </si>
-  <si>
-    <t>use-&gt;ink</t>
-  </si>
-  <si>
-    <t>parliamentary</t>
-  </si>
-  <si>
-    <t>ink-&gt;parliamentary</t>
-  </si>
-  <si>
-    <t>during</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>backsliding</t>
-  </si>
-  <si>
-    <t>experts-&gt;backsliding</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>backsliding-&gt;point</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>part-&gt;effort</t>
-  </si>
-  <si>
     <t>technology-&gt;ink</t>
   </si>
   <si>
@@ -253,12 +202,6 @@
     <t>against</t>
   </si>
   <si>
-    <t>opposition</t>
-  </si>
-  <si>
-    <t>part-&gt;opposition</t>
-  </si>
-  <si>
     <t>stories</t>
   </si>
   <si>
@@ -268,33 +211,6 @@
     <t>that</t>
   </si>
   <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
-    <t>middle-&gt;road</t>
-  </si>
-  <si>
-    <t>coalition</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>coalition-&gt;organizations</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>move-&gt;step</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -325,18 +241,6 @@
     <t>use-&gt;type</t>
   </si>
   <si>
-    <t>leaders</t>
-  </si>
-  <si>
-    <t>populations</t>
-  </si>
-  <si>
-    <t>leaders-&gt;populations</t>
-  </si>
-  <si>
-    <t>assured their</t>
-  </si>
-  <si>
     <t>contrary</t>
   </si>
   <si>
@@ -359,33 +263,6 @@
   </si>
   <si>
     <t>cuticle-&gt;thumb</t>
-  </si>
-  <si>
-    <t>panacea</t>
-  </si>
-  <si>
-    <t>ills</t>
-  </si>
-  <si>
-    <t>panacea-&gt;ills</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>passage</t>
-  </si>
-  <si>
-    <t>passage-&gt;law</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>societies</t>
-  </si>
-  <si>
-    <t>building-&gt;societies</t>
   </si>
 </sst>
 </file>
@@ -717,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -861,16 +738,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -878,13 +755,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -895,16 +772,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -912,16 +789,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -932,10 +809,10 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -946,7 +823,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -972,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -980,16 +857,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -997,10 +874,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1014,16 +891,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1034,13 +911,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1051,13 +928,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1065,16 +942,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1082,16 +959,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1099,13 +976,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1119,10 +996,10 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1133,16 +1010,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1150,16 +1027,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1167,16 +1044,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1184,13 +1061,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1201,16 +1078,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1218,16 +1095,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1235,256 +1112,18 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45">
         <v>1</v>
       </c>
     </row>

--- a/output/test-edges.xlsx
+++ b/output/test-edges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>Source</t>
   </si>
@@ -151,12 +151,36 @@
     <t>uv</t>
   </si>
   <si>
+    <t>ink-&gt;uv</t>
+  </si>
+  <si>
+    <t>shows under</t>
+  </si>
+  <si>
     <t>voter</t>
   </si>
   <si>
     <t>uv-&gt;voter</t>
   </si>
   <si>
+    <t>significance</t>
+  </si>
+  <si>
+    <t>elections-&gt;significance</t>
+  </si>
+  <si>
+    <t>are assuming</t>
+  </si>
+  <si>
+    <t>prelude</t>
+  </si>
+  <si>
+    <t>elections-&gt;prelude</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>election</t>
   </si>
   <si>
@@ -263,6 +287,15 @@
   </si>
   <si>
     <t>cuticle-&gt;thumb</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>ink-&gt;finger</t>
+  </si>
+  <si>
+    <t>stays on</t>
   </si>
 </sst>
 </file>
@@ -594,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,16 +873,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -857,16 +890,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -874,16 +907,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -900,7 +933,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -908,16 +941,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -925,16 +958,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -942,16 +975,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -962,7 +995,7 @@
         <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -979,13 +1012,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -993,16 +1026,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1010,16 +1043,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1027,16 +1060,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1047,10 +1080,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1061,16 +1094,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1078,16 +1111,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1095,16 +1128,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1112,10 +1145,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
@@ -1124,6 +1157,74 @@
         <v>15</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35">
         <v>1</v>
       </c>
     </row>

--- a/output/test-edges.xlsx
+++ b/output/test-edges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -118,6 +118,15 @@
     <t>during</t>
   </si>
   <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>republic-&gt;experts</t>
+  </si>
+  <si>
+    <t>is seen by</t>
+  </si>
+  <si>
     <t>technology</t>
   </si>
   <si>
@@ -127,6 +136,15 @@
     <t>behind</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>ink-&gt;person</t>
+  </si>
+  <si>
+    <t>is sprayed on</t>
+  </si>
+  <si>
     <t>presence</t>
   </si>
   <si>
@@ -136,9 +154,18 @@
     <t>presence-&gt;light</t>
   </si>
   <si>
+    <t>official</t>
+  </si>
+  <si>
     <t>fingers</t>
   </si>
   <si>
+    <t>official-&gt;fingers</t>
+  </si>
+  <si>
+    <t>will scan</t>
+  </si>
+  <si>
     <t>lamp</t>
   </si>
   <si>
@@ -148,6 +175,18 @@
     <t>with</t>
   </si>
   <si>
+    <t>voter</t>
+  </si>
+  <si>
+    <t>his/her</t>
+  </si>
+  <si>
+    <t>voter-&gt;his/her</t>
+  </si>
+  <si>
+    <t>will have</t>
+  </si>
+  <si>
     <t>uv</t>
   </si>
   <si>
@@ -157,9 +196,6 @@
     <t>shows under</t>
   </si>
   <si>
-    <t>voter</t>
-  </si>
-  <si>
     <t>uv-&gt;voter</t>
   </si>
   <si>
@@ -235,6 +271,15 @@
     <t>that</t>
   </si>
   <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>readers-&gt;problems</t>
+  </si>
+  <si>
+    <t>may cause</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -263,6 +308,12 @@
   </si>
   <si>
     <t>use-&gt;type</t>
+  </si>
+  <si>
+    <t>ink-&gt;problems</t>
+  </si>
+  <si>
+    <t>can cause</t>
   </si>
   <si>
     <t>contrary</t>
@@ -627,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,10 +873,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -842,13 +893,13 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -856,16 +907,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -873,7 +924,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -882,7 +933,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -890,7 +941,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -899,7 +950,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -907,16 +958,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -924,16 +975,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -941,16 +992,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -958,16 +1009,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -978,13 +1029,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -992,16 +1043,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1009,16 +1060,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1026,16 +1077,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1043,16 +1094,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1060,16 +1111,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1077,16 +1128,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1094,16 +1145,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1111,16 +1162,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1128,16 +1179,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1145,13 +1196,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1162,16 +1213,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1182,13 +1233,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1196,16 +1247,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1213,18 +1264,120 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
     </row>

--- a/output/test-edges.xlsx
+++ b/output/test-edges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="315">
   <si>
     <t>Source</t>
   </si>
@@ -31,322 +31,934 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>ink-&gt;democracy</t>
-  </si>
-  <si>
-    <t>helps drive</t>
-  </si>
-  <si>
-    <t>asia</t>
-  </si>
-  <si>
-    <t>democracy-&gt;asia</t>
+    <t>games</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+  </si>
+  <si>
+    <t>games-&gt;time-consuming</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>flights</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>flights-&gt;reality</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>people-&gt;fantasy</t>
+  </si>
+  <si>
+    <t>taking their</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>warcraft</t>
+  </si>
+  <si>
+    <t>world-&gt;warcraft</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>warcraft-&gt;shops</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>addiction-&gt;game</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>game-&gt;good</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>tone-&gt;game</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>motto</t>
+  </si>
+  <si>
+    <t>mmorpg</t>
+  </si>
+  <si>
+    <t>motto-&gt;mmorpg</t>
+  </si>
+  <si>
+    <t>pong</t>
+  </si>
+  <si>
+    <t>game-&gt;pong</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>time-&gt;gym</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>republic</t>
-  </si>
-  <si>
-    <t>state-&gt;republic</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>readers</t>
-  </si>
-  <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>readers-&gt;elections</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>elections-&gt;part</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>part-&gt;drive</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>island-&gt;democracy</t>
-  </si>
-  <si>
-    <t>law</t>
+    <t>front</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>front-&gt;television</t>
+  </si>
+  <si>
+    <t>stories</t>
+  </si>
+  <si>
+    <t>gamers</t>
+  </si>
+  <si>
+    <t>stories-&gt;gamers</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>day-&gt;front</t>
+  </si>
+  <si>
+    <t>front-&gt;games</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>games-&gt;frequent</t>
+  </si>
+  <si>
+    <t>are becoming</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>role-&gt;games</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>thousands</t>
+  </si>
+  <si>
+    <t>thousands-&gt;gamers</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>gamers-&gt;share</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>scope-&gt;games</t>
+  </si>
+  <si>
+    <t>ultima</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>ultima-&gt;others</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>adventure-&gt;infinite</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>access-&gt;adventure</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>everquest</t>
+  </si>
+  <si>
+    <t>reason-&gt;everquest</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>week-&gt;average</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>gaming</t>
+  </si>
+  <si>
+    <t>world-&gt;gaming</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>lots-&gt;people</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>game-&gt;eq</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>time-&gt;tv</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>life-&gt;fun</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>obsession</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>obsession-&gt;rare</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>growth-&gt;gaming</t>
+  </si>
+  <si>
+    <t>gaming-&gt;growth</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>passion-&gt;hobby</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>people-&gt;copy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>days-&gt;sale</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>thoughts-&gt;families</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>friends-&gt;gamers</t>
+  </si>
+  <si>
+    <t>chronicle</t>
+  </si>
+  <si>
+    <t>chronicle-&gt;stories</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>body-&gt;next</t>
+  </si>
+  <si>
+    <t>laying</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>term-&gt;women</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>truth-&gt;husband</t>
+  </si>
+  <si>
+    <t>is my</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>today-&gt;game</t>
+  </si>
+  <si>
+    <t>playing his</t>
+  </si>
+  <si>
+    <t>quests</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>quests-&gt;online</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>mainstream</t>
+  </si>
+  <si>
+    <t>gaming-&gt;mainstream</t>
+  </si>
+  <si>
+    <t>becomes</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>place-&gt;problems</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>week-&gt;unusual</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>hours-&gt;stretch</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>holiday-&gt;warcraft</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <t>]-&gt;shifts</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>sign-&gt;addiction</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>talk-&gt;people</t>
+  </si>
+  <si>
+    <t>people-&gt;gaming</t>
+  </si>
+  <si>
+    <t>becoming obsessed with</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>work-&gt;drag</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>rpgs</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>rpgs-&gt;worst</t>
+  </si>
+  <si>
+    <t>worries</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>worries-&gt;staff</t>
+  </si>
+  <si>
+    <t>sorround</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>nothing-&gt;world</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>achievement-&gt;one</t>
+  </si>
+  <si>
+    <t>encouragement</t>
+  </si>
+  <si>
+    <t>mmorpgs</t>
+  </si>
+  <si>
+    <t>encouragement-&gt;mmorpgs</t>
+  </si>
+  <si>
+    <t>offered by</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>mmorpgs-&gt;enough</t>
+  </si>
+  <si>
+    <t>games-&gt;hours</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>need-&gt;progress</t>
+  </si>
+  <si>
+    <t>achievements</t>
+  </si>
+  <si>
+    <t>achievements-&gt;reality</t>
+  </si>
+  <si>
+    <t>hours-&gt;day</t>
+  </si>
+  <si>
+    <t>per, of</t>
+  </si>
+  <si>
+    <t>adiction</t>
+  </si>
+  <si>
+    <t>adiction-&gt;achievement</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>talk-&gt;terms</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>everquest-&gt;problem</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>sense-&gt;reality</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>player-&gt;game</t>
+  </si>
+  <si>
+    <t>does not consider</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>mmorpgs-&gt;danger</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>nature-&gt;gaming</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>manager-&gt;life</t>
+  </si>
+  <si>
+    <t>consumed my</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>life-&gt;years</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>world-&gt;real</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>others-&gt;less</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>rpgs-&gt;plague</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>dinner-&gt;front</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>front-&gt;pc</t>
+  </si>
+  <si>
+    <t>world-&gt;reality</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>reality-&gt;times</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>goal-&gt;game</t>
+  </si>
+  <si>
+    <t>offered in</t>
+  </si>
+  <si>
+    <t>fun-&gt;world</t>
+  </si>
+  <si>
+    <t>addictiveness</t>
+  </si>
+  <si>
+    <t>addictiveness-&gt;games</t>
+  </si>
+  <si>
+    <t>slower</t>
+  </si>
+  <si>
+    <t>progress-&gt;slower</t>
+  </si>
+  <si>
+    <t>weekends</t>
+  </si>
+  <si>
+    <t>weekends-&gt;front</t>
+  </si>
+  <si>
+    <t>gaming-&gt;world</t>
+  </si>
+  <si>
+    <t>can be</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>fear-&gt;thoughts</t>
+  </si>
+  <si>
+    <t>thoughts-&gt;others</t>
+  </si>
+  <si>
+    <t>day-&gt;day</t>
+  </si>
+  <si>
+    <t>day-&gt;life</t>
+  </si>
+  <si>
+    <t>running of</t>
+  </si>
+  <si>
+    <t>life-&gt;games</t>
+  </si>
+  <si>
+    <t>addictive</t>
+  </si>
+  <si>
+    <t>gaming-&gt;addictive</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>night-&gt;work</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>battle-&gt;hours</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>hours-&gt;morning</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>people-&gt;drugs</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>law-&gt;use</t>
-  </si>
-  <si>
-    <t>requiring</t>
-  </si>
-  <si>
-    <t>use-&gt;ink</t>
-  </si>
-  <si>
-    <t>parliamentary</t>
-  </si>
-  <si>
-    <t>ink-&gt;parliamentary</t>
-  </si>
-  <si>
-    <t>during</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>republic-&gt;experts</t>
-  </si>
-  <si>
-    <t>is seen by</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>technology-&gt;ink</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>ink-&gt;person</t>
-  </si>
-  <si>
-    <t>is sprayed on</t>
-  </si>
-  <si>
-    <t>presence</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>presence-&gt;light</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>fingers</t>
-  </si>
-  <si>
-    <t>official-&gt;fingers</t>
-  </si>
-  <si>
-    <t>will scan</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>fingers-&gt;lamp</t>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>drugs-&gt;basis</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>lives-&gt;families</t>
   </si>
   <si>
     <t>with</t>
   </si>
   <si>
-    <t>voter</t>
-  </si>
-  <si>
-    <t>his/her</t>
-  </si>
-  <si>
-    <t>voter-&gt;his/her</t>
-  </si>
-  <si>
-    <t>will have</t>
-  </si>
-  <si>
-    <t>uv</t>
-  </si>
-  <si>
-    <t>ink-&gt;uv</t>
-  </si>
-  <si>
-    <t>shows under</t>
-  </si>
-  <si>
-    <t>uv-&gt;voter</t>
-  </si>
-  <si>
-    <t>significance</t>
-  </si>
-  <si>
-    <t>elections-&gt;significance</t>
-  </si>
-  <si>
-    <t>are assuming</t>
-  </si>
-  <si>
-    <t>prelude</t>
-  </si>
-  <si>
-    <t>elections-&gt;prelude</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>election</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>election-&gt;autumn</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>echo-&gt;elections</t>
-  </si>
-  <si>
-    <t>republics</t>
-  </si>
-  <si>
-    <t>elections-&gt;republics</t>
-  </si>
-  <si>
-    <t>articles</t>
-  </si>
-  <si>
-    <t>articles-&gt;use</t>
-  </si>
-  <si>
-    <t>compared</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>article-&gt;drive</t>
-  </si>
-  <si>
-    <t>began</t>
-  </si>
-  <si>
-    <t>drive-&gt;use</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>stories</t>
-  </si>
-  <si>
-    <t>stories-&gt;ink</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>readers-&gt;problems</t>
-  </si>
-  <si>
-    <t>may cause</t>
+    <t>alot</t>
+  </si>
+  <si>
+    <t>alot-&gt;warcraft</t>
+  </si>
+  <si>
+    <t>time-&gt;games</t>
+  </si>
+  <si>
+    <t>games-&gt;everquest</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>front-&gt;computer</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>computer-&gt;league</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>adrenaline</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>adrenaline-&gt;situation</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>players-&gt;time</t>
+  </si>
+  <si>
+    <t>spend their</t>
+  </si>
+  <si>
+    <t>time-&gt;mmorpgs</t>
+  </si>
+  <si>
+    <t>front-&gt;tv</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>types-&gt;games</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>games-&gt;aspect</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>lack-&gt;food</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>online-&gt;hour</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>stress-&gt;day</t>
+  </si>
+  <si>
+    <t>day-&gt;hour</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>game-&gt;month</t>
+  </si>
+  <si>
+    <t>games-&gt;years</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>type-&gt;ink</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>elections-&gt;world</t>
-  </si>
-  <si>
-    <t>ink-&gt;elections</t>
-  </si>
-  <si>
-    <t>elections-&gt;ink</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>afghanistan</t>
-  </si>
-  <si>
-    <t>elections-&gt;afghanistan</t>
-  </si>
-  <si>
-    <t>use-&gt;type</t>
-  </si>
-  <si>
-    <t>ink-&gt;problems</t>
-  </si>
-  <si>
-    <t>can cause</t>
-  </si>
-  <si>
-    <t>contrary</t>
-  </si>
-  <si>
-    <t>use-&gt;contrary</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>ink-&gt;effective</t>
-  </si>
-  <si>
-    <t>cuticle</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>cuticle-&gt;thumb</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
-    <t>ink-&gt;finger</t>
-  </si>
-  <si>
-    <t>stays on</t>
+    <t>type-&gt;games</t>
+  </si>
+  <si>
+    <t>games-&gt;life</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>generation-&gt;gamers</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>hours-&gt;end</t>
+  </si>
+  <si>
+    <t>screens</t>
+  </si>
+  <si>
+    <t>screens-&gt;hours</t>
+  </si>
+  <si>
+    <t>hours-&gt;time</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>people-&gt;pathetic</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>i-&gt;term</t>
+  </si>
+  <si>
+    <t>was on</t>
+  </si>
+  <si>
+    <t>online-&gt;game</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,16 +1332,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -737,16 +1349,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -754,16 +1366,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -771,16 +1383,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +1400,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -805,16 +1417,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -822,16 +1434,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -839,16 +1451,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -856,16 +1468,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -873,16 +1485,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -890,16 +1502,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -907,16 +1519,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -924,16 +1536,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -941,16 +1553,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -958,16 +1570,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -975,16 +1587,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -992,16 +1604,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1009,16 +1621,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1026,16 +1638,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1043,16 +1655,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1060,16 +1672,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1077,16 +1689,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1094,16 +1706,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1111,16 +1723,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1128,16 +1740,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1145,16 +1757,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1162,16 +1774,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1179,16 +1791,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1196,16 +1808,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1213,16 +1825,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1230,16 +1842,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1247,16 +1859,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1264,16 +1876,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1281,16 +1893,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1298,16 +1910,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1315,16 +1927,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1332,16 +1944,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1349,16 +1961,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1366,18 +1978,1446 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41">
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" t="s">
+        <v>245</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>263</v>
+      </c>
+      <c r="D99" t="s">
+        <v>264</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>268</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" t="s">
+        <v>276</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" t="s">
+        <v>285</v>
+      </c>
+      <c r="D110" t="s">
+        <v>286</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" t="s">
+        <v>288</v>
+      </c>
+      <c r="C111" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>290</v>
+      </c>
+      <c r="C112" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" t="s">
+        <v>294</v>
+      </c>
+      <c r="D114" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>297</v>
+      </c>
+      <c r="D115" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>299</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>300</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" t="s">
+        <v>301</v>
+      </c>
+      <c r="D118" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>303</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
+        <v>307</v>
+      </c>
+      <c r="D121" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" t="s">
+        <v>308</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>312</v>
+      </c>
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125">
         <v>1</v>
       </c>
     </row>
